--- a/output/piastow/sheets/piastow_long_term_monthly_average_noise_levels.xlsx
+++ b/output/piastow/sheets/piastow_long_term_monthly_average_noise_levels.xlsx
@@ -145,7 +145,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6096000" cy="4572000"/>
+    <ext cx="15392400" cy="5943600"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.90645161290323</v>
+        <v>52.96805080204287</v>
       </c>
       <c r="C2" t="n">
-        <v>43.71290322580645</v>
+        <v>45.53088083900164</v>
       </c>
     </row>
     <row r="3">
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.59285714285714</v>
+        <v>52.61499750438009</v>
       </c>
       <c r="C3" t="n">
-        <v>45.17857142857143</v>
+        <v>45.38675842570559</v>
       </c>
     </row>
     <row r="4">
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.66129032258065</v>
+        <v>52.71264045851397</v>
       </c>
       <c r="C4" t="n">
-        <v>44.81935483870968</v>
+        <v>45.37598407157924</v>
       </c>
     </row>
     <row r="5">
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49.80333333333333</v>
+        <v>51.32060252785941</v>
       </c>
       <c r="C5" t="n">
-        <v>41.68666666666666</v>
+        <v>44.45483327887666</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.32580645161291</v>
+        <v>53.33667070138549</v>
       </c>
       <c r="C6" t="n">
-        <v>46.75483870967742</v>
+        <v>46.89545652125275</v>
       </c>
     </row>
     <row r="7">
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.43666666666666</v>
+        <v>53.46319816558865</v>
       </c>
       <c r="C7" t="n">
-        <v>46.64</v>
+        <v>46.91462073534809</v>
       </c>
     </row>
     <row r="8">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.05483870967742</v>
+        <v>53.090222479418</v>
       </c>
       <c r="C8" t="n">
-        <v>46.60322580645161</v>
+        <v>46.79819333918215</v>
       </c>
     </row>
     <row r="9">
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>52.56451612903226</v>
+        <v>52.59533654559036</v>
       </c>
       <c r="C9" t="n">
-        <v>46.46774193548387</v>
+        <v>46.62975998579675</v>
       </c>
     </row>
     <row r="10">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.51666666666667</v>
+        <v>53.54041119995676</v>
       </c>
       <c r="C10" t="n">
-        <v>46.88333333333333</v>
+        <v>47.04843927179199</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>53.63225806451613</v>
+        <v>53.66402012089126</v>
       </c>
       <c r="C11" t="n">
-        <v>46.39354838709678</v>
+        <v>46.54911604508597</v>
       </c>
     </row>
     <row r="12">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50.86</v>
+        <v>53.09938860853875</v>
       </c>
       <c r="C12" t="n">
-        <v>42.80666666666666</v>
+        <v>46.12786721753046</v>
       </c>
     </row>
     <row r="13">
@@ -630,10 +630,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.13225806451613</v>
+        <v>52.37397287305235</v>
       </c>
       <c r="C13" t="n">
-        <v>44.52903225806452</v>
+        <v>45.76295851713715</v>
       </c>
     </row>
     <row r="14">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>51.97741935483871</v>
+        <v>52.09678304871743</v>
       </c>
       <c r="C14" t="n">
-        <v>44.23870967741936</v>
+        <v>44.84993668655862</v>
       </c>
     </row>
     <row r="15">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>51.88928571428572</v>
+        <v>52.06982754281088</v>
       </c>
       <c r="C15" t="n">
-        <v>44.50357142857143</v>
+        <v>44.68251244664788</v>
       </c>
     </row>
     <row r="16">
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.89354838709678</v>
+        <v>50.04680245933699</v>
       </c>
       <c r="C16" t="n">
-        <v>41.46129032258064</v>
+        <v>43.27763861510587</v>
       </c>
     </row>
     <row r="17">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>30.38666666666667</v>
+        <v>43.11438835715698</v>
       </c>
       <c r="C17" t="n">
-        <v>24.61333333333333</v>
+        <v>39.61987841296011</v>
       </c>
     </row>
     <row r="18">
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>38.37741935483871</v>
+        <v>43.82978611588413</v>
       </c>
       <c r="C18" t="n">
-        <v>30.1</v>
+        <v>40.42088858894011</v>
       </c>
     </row>
     <row r="19">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.01</v>
+        <v>42.39531350349847</v>
       </c>
       <c r="C19" t="n">
-        <v>26.43666666666667</v>
+        <v>39.44129772680832</v>
       </c>
     </row>
     <row r="20">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>52.49677419354839</v>
+        <v>52.53496424194496</v>
       </c>
       <c r="C20" t="n">
-        <v>44.94193548387097</v>
+        <v>45.14880743720555</v>
       </c>
     </row>
     <row r="21">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>52.89677419354839</v>
+        <v>52.93316797507289</v>
       </c>
       <c r="C21" t="n">
-        <v>45.33870967741935</v>
+        <v>45.60568219983342</v>
       </c>
     </row>
     <row r="22">
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.4</v>
+        <v>53.44667482187187</v>
       </c>
       <c r="C22" t="n">
-        <v>45.86666666666667</v>
+        <v>46.0843244235221</v>
       </c>
     </row>
     <row r="23">
@@ -760,10 +760,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>45.16774193548387</v>
+        <v>51.75051760218875</v>
       </c>
       <c r="C23" t="n">
-        <v>32.45806451612903</v>
+        <v>43.69354450133876</v>
       </c>
     </row>
     <row r="24">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>53.46666666666667</v>
+        <v>53.50191930236699</v>
       </c>
       <c r="C24" t="n">
-        <v>45.82</v>
+        <v>46.14587478180727</v>
       </c>
     </row>
     <row r="25">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.02903225806452</v>
+        <v>52.23445066939162</v>
       </c>
       <c r="C25" t="n">
-        <v>43.95161290322581</v>
+        <v>44.81765164725087</v>
       </c>
     </row>
     <row r="26">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>51.28387096774193</v>
+        <v>51.53413651318779</v>
       </c>
       <c r="C26" t="n">
-        <v>43.68387096774194</v>
+        <v>43.89917148557511</v>
       </c>
     </row>
     <row r="27">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.43448275862069</v>
+        <v>50.90622838241551</v>
       </c>
       <c r="C27" t="n">
-        <v>39.72068965517241</v>
+        <v>43.50252913364724</v>
       </c>
     </row>
     <row r="28">
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.05483870967742</v>
+        <v>50.16088240170893</v>
       </c>
       <c r="C28" t="n">
-        <v>21.3</v>
+        <v>43.57610807417038</v>
       </c>
     </row>
     <row r="29">
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11.23333333333333</v>
+        <v>33.5</v>
       </c>
       <c r="C29" t="n">
-        <v>1.066666666666667</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.01935483870968</v>
+        <v>36.8</v>
       </c>
       <c r="C30" t="n">
-        <v>2.493548387096774</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>26.61333333333333</v>
+        <v>36.7</v>
       </c>
       <c r="C31" t="n">
-        <v>1.986666666666667</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -877,10 +877,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.19354838709678</v>
+        <v>47.50647275864424</v>
       </c>
       <c r="C32" t="n">
-        <v>36.40645161290323</v>
+        <v>39.91821508601434</v>
       </c>
     </row>
     <row r="33">
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>48.13548387096775</v>
+        <v>48.18687333919345</v>
       </c>
       <c r="C33" t="n">
-        <v>40.22903225806451</v>
+        <v>41.2839747056335</v>
       </c>
     </row>
     <row r="34">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.38333333333333</v>
+        <v>48.43701247533942</v>
       </c>
       <c r="C34" t="n">
-        <v>40.78333333333333</v>
+        <v>41.30182450844536</v>
       </c>
     </row>
     <row r="35">
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.94193548387097</v>
+        <v>48.17615152086329</v>
       </c>
       <c r="C35" t="n">
-        <v>40.0516129032258</v>
+        <v>41.85113073700833</v>
       </c>
     </row>
     <row r="36">
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>45.4</v>
+        <v>45.81613570683309</v>
       </c>
       <c r="C36" t="n">
-        <v>37.28333333333333</v>
+        <v>41.1359911731008</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.89677419354839</v>
+        <v>47.12713920985881</v>
       </c>
       <c r="C37" t="n">
-        <v>38.44516129032258</v>
+        <v>40.85963150688733</v>
       </c>
     </row>
     <row r="38">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>42.06774193548387</v>
+        <v>45.29457071817085</v>
       </c>
       <c r="C38" t="n">
-        <v>36.97096774193548</v>
+        <v>40.12947610655205</v>
       </c>
     </row>
     <row r="39">
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>44.14642857142857</v>
+        <v>44.42695686631354</v>
       </c>
       <c r="C39" t="n">
-        <v>32.80357142857143</v>
+        <v>38.47901082761781</v>
       </c>
     </row>
     <row r="40">
@@ -981,10 +981,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>44.96774193548387</v>
+        <v>45.17414308176085</v>
       </c>
       <c r="C40" t="n">
-        <v>34.02258064516129</v>
+        <v>38.05687972879421</v>
       </c>
     </row>
     <row r="41">
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>27.17</v>
+        <v>44.68388113513343</v>
       </c>
       <c r="C41" t="n">
-        <v>16.79666666666667</v>
+        <v>39.81135811320988</v>
       </c>
     </row>
     <row r="42">
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>46.7258064516129</v>
+        <v>47.32736408153119</v>
       </c>
       <c r="C42" t="n">
-        <v>35.41612903225807</v>
+        <v>41.41324204140365</v>
       </c>
     </row>
     <row r="43">
@@ -1020,10 +1020,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.08333333333334</v>
+        <v>47.73394613085622</v>
       </c>
       <c r="C43" t="n">
-        <v>39.92666666666666</v>
+        <v>42.12330493877846</v>
       </c>
     </row>
     <row r="44">
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>48.80322580645161</v>
+        <v>48.85212622942156</v>
       </c>
       <c r="C44" t="n">
-        <v>42.95483870967742</v>
+        <v>43.25716858072943</v>
       </c>
     </row>
     <row r="45">
@@ -1046,10 +1046,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>50.16129032258065</v>
+        <v>50.22483476349674</v>
       </c>
       <c r="C45" t="n">
-        <v>44.0258064516129</v>
+        <v>44.32907833648733</v>
       </c>
     </row>
     <row r="46">
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.32666666666667</v>
+        <v>50.37713156135324</v>
       </c>
       <c r="C46" t="n">
-        <v>44.39</v>
+        <v>44.62251108252035</v>
       </c>
     </row>
     <row r="47">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>50.19354838709678</v>
+        <v>50.48436334173284</v>
       </c>
       <c r="C47" t="n">
-        <v>43.83225806451613</v>
+        <v>44.07791662376678</v>
       </c>
     </row>
     <row r="48">
@@ -1085,10 +1085,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>49.47666666666667</v>
+        <v>49.83508165304526</v>
       </c>
       <c r="C48" t="n">
-        <v>43.50333333333333</v>
+        <v>43.87497508901695</v>
       </c>
     </row>
     <row r="49">
@@ -1098,10 +1098,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>48.3258064516129</v>
+        <v>48.72900471560126</v>
       </c>
       <c r="C49" t="n">
-        <v>41.70322580645161</v>
+        <v>43.81490510861636</v>
       </c>
     </row>
     <row r="50">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>48.00322580645161</v>
+        <v>48.28096733624481</v>
       </c>
       <c r="C50" t="n">
-        <v>41.12580645161291</v>
+        <v>43.11187485069699</v>
       </c>
     </row>
     <row r="51">
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>48.82857142857143</v>
+        <v>48.97796052748026</v>
       </c>
       <c r="C51" t="n">
-        <v>40.55714285714286</v>
+        <v>42.6477600443602</v>
       </c>
     </row>
     <row r="52">
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>49.2516129032258</v>
+        <v>49.75074665439362</v>
       </c>
       <c r="C52" t="n">
-        <v>41.32258064516129</v>
+        <v>43.41932420129848</v>
       </c>
     </row>
     <row r="53">
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>50.97333333333334</v>
+        <v>51.00637457784089</v>
       </c>
       <c r="C53" t="n">
-        <v>44.57</v>
+        <v>45.48497669419569</v>
       </c>
     </row>
     <row r="54">
@@ -1163,10 +1163,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>51.45806451612903</v>
+        <v>51.48422282243767</v>
       </c>
       <c r="C54" t="n">
-        <v>44.53870967741936</v>
+        <v>44.99045096445102</v>
       </c>
     </row>
     <row r="55">
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>51.69666666666667</v>
+        <v>51.72012585158881</v>
       </c>
       <c r="C55" t="n">
-        <v>45.47666666666667</v>
+        <v>45.64516217327342</v>
       </c>
     </row>
     <row r="56">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>51.65806451612904</v>
+        <v>51.7308659915699</v>
       </c>
       <c r="C56" t="n">
-        <v>44.77741935483871</v>
+        <v>45.08474586078079</v>
       </c>
     </row>
     <row r="57">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>50.91612903225807</v>
+        <v>50.95077375819403</v>
       </c>
       <c r="C57" t="n">
-        <v>45.12903225806452</v>
+        <v>45.27114051503814</v>
       </c>
     </row>
     <row r="58">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>52.27333333333333</v>
+        <v>52.32351395211532</v>
       </c>
       <c r="C58" t="n">
-        <v>45.75</v>
+        <v>46.00016705640533</v>
       </c>
     </row>
     <row r="59">
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>43.46451612903225</v>
+        <v>50.54830601188706</v>
       </c>
       <c r="C59" t="n">
-        <v>35.76774193548387</v>
+        <v>43.68321275210344</v>
       </c>
     </row>
     <row r="60">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>51.28333333333333</v>
+        <v>51.5260259208254</v>
       </c>
       <c r="C60" t="n">
-        <v>44.69333333333334</v>
+        <v>45.14633251139646</v>
       </c>
     </row>
     <row r="61">
@@ -1254,10 +1254,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>50.52258064516129</v>
+        <v>50.69797611556523</v>
       </c>
       <c r="C61" t="n">
-        <v>43.72258064516129</v>
+        <v>44.55063444036928</v>
       </c>
     </row>
     <row r="62">
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>50.91612903225807</v>
+        <v>51.03841373932597</v>
       </c>
       <c r="C62" t="n">
-        <v>44.21612903225807</v>
+        <v>44.70488745139989</v>
       </c>
     </row>
     <row r="63">
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>50.93571428571429</v>
+        <v>51.00224762571376</v>
       </c>
       <c r="C63" t="n">
-        <v>44.16785714285714</v>
+        <v>44.82982353028314</v>
       </c>
     </row>
     <row r="64">
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>51.61612903225806</v>
+        <v>51.72205073797901</v>
       </c>
       <c r="C64" t="n">
-        <v>45.43548387096774</v>
+        <v>45.78403339100826</v>
       </c>
     </row>
     <row r="65">
@@ -1306,10 +1306,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>52.66666666666666</v>
+        <v>52.68625626474432</v>
       </c>
       <c r="C65" t="n">
-        <v>43.96333333333334</v>
+        <v>45.73332486558353</v>
       </c>
     </row>
     <row r="66">
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>52.12258064516129</v>
+        <v>52.14194272353406</v>
       </c>
       <c r="C66" t="n">
-        <v>45.84193548387096</v>
+        <v>46.07234715604265</v>
       </c>
     </row>
     <row r="67">
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>51.73333333333333</v>
+        <v>51.82565356054923</v>
       </c>
       <c r="C67" t="n">
-        <v>45.95333333333333</v>
+        <v>46.16506537450233</v>
       </c>
     </row>
     <row r="68">
@@ -1345,10 +1345,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>51.23548387096774</v>
+        <v>51.25075264328741</v>
       </c>
       <c r="C68" t="n">
-        <v>45.2258064516129</v>
+        <v>45.48877435308011</v>
       </c>
     </row>
     <row r="69">
@@ -1358,10 +1358,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>51.82258064516129</v>
+        <v>51.85497850075519</v>
       </c>
       <c r="C69" t="n">
-        <v>45.95161290322581</v>
+        <v>46.05302275809413</v>
       </c>
     </row>
     <row r="70">
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>48.1</v>
+        <v>52.69478152233898</v>
       </c>
       <c r="C70" t="n">
-        <v>42.8</v>
+        <v>46.71988468258053</v>
       </c>
     </row>
     <row r="71">
@@ -1384,10 +1384,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>53.50322580645161</v>
+        <v>53.52843773527869</v>
       </c>
       <c r="C71" t="n">
-        <v>45.95161290322581</v>
+        <v>46.33983981380126</v>
       </c>
     </row>
     <row r="72">
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>53.41</v>
+        <v>53.45718866527318</v>
       </c>
       <c r="C72" t="n">
-        <v>46.6</v>
+        <v>47.01169480579381</v>
       </c>
     </row>
     <row r="73">
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>52.49677419354839</v>
+        <v>52.60312113040256</v>
       </c>
       <c r="C73" t="n">
-        <v>44.79677419354839</v>
+        <v>45.84979435727756</v>
       </c>
     </row>
     <row r="74">
@@ -1423,10 +1423,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>52.06451612903226</v>
+        <v>52.13755572412793</v>
       </c>
       <c r="C74" t="n">
-        <v>45.03225806451613</v>
+        <v>45.71082837930153</v>
       </c>
     </row>
     <row r="75">
@@ -1436,10 +1436,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>53.3</v>
+        <v>53.38938138325508</v>
       </c>
       <c r="C75" t="n">
-        <v>46.18620689655172</v>
+        <v>47.07007406018991</v>
       </c>
     </row>
     <row r="76">
@@ -1449,10 +1449,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>53.69677419354839</v>
+        <v>53.71873379059227</v>
       </c>
       <c r="C76" t="n">
-        <v>47.0516129032258</v>
+        <v>47.36834562463068</v>
       </c>
     </row>
     <row r="77">
@@ -1462,10 +1462,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>53.83000000000001</v>
+        <v>53.86340380617773</v>
       </c>
       <c r="C77" t="n">
-        <v>45.26</v>
+        <v>47.00224738942345</v>
       </c>
     </row>
   </sheetData>
